--- a/DMSNewVSale_2025-11-06_19-23.xlsx
+++ b/DMSNewVSale_2025-11-06_19-23.xlsx
@@ -506,6 +506,15 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>OREX ORAL SPRAY 60 ML</t>
   </si>
   <si>
@@ -594,9 +603,6 @@
   </si>
   <si>
     <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
-  </si>
-  <si>
-    <t>86.00</t>
   </si>
   <si>
     <t>86.0000</t>
@@ -3038,7 +3044,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3055,7 +3061,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3071,13 +3077,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3085,10 +3091,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3097,20 +3103,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3118,10 +3124,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3130,14 +3136,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3147,14 +3153,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3163,14 +3169,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3187,7 +3193,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3203,7 +3209,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3236,7 +3242,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3246,14 +3252,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3262,14 +3268,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3279,14 +3285,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3295,14 +3301,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3312,14 +3318,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3335,7 +3341,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3345,14 +3351,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3361,14 +3367,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3378,14 +3384,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3401,7 +3407,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3434,7 +3440,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3444,14 +3450,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3460,14 +3466,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3477,14 +3483,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>204</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3493,31 +3499,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>53</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3533,7 +3539,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3543,14 +3549,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3566,7 +3572,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3576,14 +3582,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3592,14 +3598,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3609,11 +3615,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>53</v>
@@ -3625,14 +3631,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3642,11 +3648,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>53</v>
@@ -3658,14 +3664,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3675,14 +3681,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3691,14 +3697,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3708,11 +3714,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>17</v>
@@ -3724,14 +3730,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3745,7 +3751,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>17</v>
@@ -3757,14 +3763,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3774,11 +3780,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>17</v>
@@ -3790,7 +3796,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3807,14 +3813,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>206</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3823,7 +3829,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3840,14 +3846,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>236</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3856,14 +3862,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3873,14 +3879,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>17</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3889,14 +3895,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3906,11 +3912,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>17</v>
@@ -3922,14 +3928,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3939,14 +3945,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3962,7 +3968,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3972,14 +3978,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3988,14 +3994,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4005,11 +4011,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>17</v>
@@ -4021,14 +4027,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4038,14 +4044,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>251</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4061,7 +4067,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4071,14 +4077,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>17</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4094,7 +4100,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4104,14 +4110,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4127,7 +4133,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>257</v>
+        <v>50</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4137,14 +4143,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>236</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4153,14 +4159,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4174,10 +4180,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>53</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4186,14 +4192,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4203,51 +4209,84 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>262</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
         <v>263</v>
       </c>
-      <c t="s" r="Q90" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" ht="26.25" customHeight="1">
-      <c r="N91" s="13">
-        <v>5738.1899999999996</v>
-      </c>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>37</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
         <v>264</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>265</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c t="s" r="Q91" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" ht="26.25" customHeight="1">
+      <c r="N92" s="13">
+        <v>5781.1899999999996</v>
+      </c>
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
         <v>266</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>267</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>268</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4676,10 +4715,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
